--- a/Assets/UI/Dialog/Dialog_script.xlsx
+++ b/Assets/UI/Dialog/Dialog_script.xlsx
@@ -1,90 +1,237 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Documents\unity-project\Assets\UI\Dialog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LGPC\OneDrive\문서\unity-project\Assets\UI\Dialog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02973613-B3B7-4A70-B112-7987284740EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA8FF7F-FA19-442F-A9FB-7475EE32ACFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6DB52EA2-DB62-4967-BF6E-A020F1AC9010}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dino" sheetId="1" r:id="rId1"/>
+    <sheet name="Earth" sheetId="1" r:id="rId1"/>
+    <sheet name="Dino" sheetId="2" r:id="rId2"/>
+    <sheet name="Desert" sheetId="3" r:id="rId3"/>
+    <sheet name="Earth_Ending" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
+  <si>
+    <t>왜 이렇게 속상해하니 어린왕자야?</t>
+  </si>
+  <si>
+    <t>사막이니까 분명히 오아시스가 있을 거야.</t>
+  </si>
+  <si>
+    <t>당연하지! 우리는 꼭 구할 수 있을 거야</t>
+  </si>
+  <si>
+    <t>뱀을 따라가보자. 오아시스가 나타날거야.</t>
+  </si>
+  <si>
+    <t>앞에 있는 설명서를 읽고 시작해보자. 시작 버튼을 누르고 아기 공룡을 구해줘!</t>
+  </si>
+  <si>
+    <t>도와줘서 고마워! 너희의 도와준 마음에 대해 선물을 주고 싶어. 여기서 하나를 골라볼래?</t>
+  </si>
+  <si>
+    <t>어린왕자</t>
+  </si>
+  <si>
+    <t>어린 왕자야 저기 있는 행성으로 가보자, 저 행성에 네가 좋아하는 것들로 이루어져 있을 거야!</t>
+  </si>
+  <si>
+    <t>뱀</t>
+  </si>
+  <si>
+    <t>으아아 운석이 떨어진다! 공룡이 위험하잖아..?!</t>
+  </si>
+  <si>
+    <t>덕분에 물을 구할 수 있게 되었어, 정말 고마워!</t>
+  </si>
+  <si>
+    <t>여우</t>
+  </si>
+  <si>
+    <t>우리가 도와줄 수 있어 어린왕자야, 저 행성으로 가보자!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">유니콘을 타고, 포탈로 이동해보자. 공룡별로 갈 수 있을거야. </t>
+  </si>
+  <si>
+    <t>눈 앞에 나타난 유니콘 모형을 잡으면 유니콘이 소환될거야.</t>
+  </si>
+  <si>
+    <t>공룡별에서 운석이 떨어지고 있어... 저렇게 위험에 빠진 행성이 있는데 내가 할 수 있는게 아무것도 없어..</t>
+  </si>
+  <si>
+    <t>수고했어, 도와주려고 해서 너무 고마워! 나를 도와주려고 했으니 선물을 줄게! 여기서 하나 골라볼래?</t>
+  </si>
+  <si>
+    <t>손에 있는 무기로 운석을 부수는 거야!</t>
+  </si>
+  <si>
+    <t>흐아아앙, 엄마, 아빠...나 무서워!</t>
+  </si>
+  <si>
+    <t>그럼 이제 유니콘에게 물을 주러 가보자!</t>
+  </si>
+  <si>
+    <t>당연하지. 누군가를 도와주면 너 또한 행복해진다는 거, 잊으면 안돼!</t>
+  </si>
+  <si>
+    <t>여우야 나는 내가 누군가에게 도움이 될 수 있다는 게 너무 기뻐!</t>
+  </si>
   <si>
     <t>branch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialog</t>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떻게 찾지?</t>
+  </si>
+  <si>
+    <t>내가 할 수 있을까..?</t>
+  </si>
+  <si>
+    <t>이 행성은 네가 아기 공룡과 조종사를 도와준 결과야. 반짝반짝 예쁘지?</t>
+  </si>
+  <si>
+    <t>너희 혹시 오아시스를 찾고 있니?</t>
+  </si>
+  <si>
+    <t>조종사님 어디 아프세요?</t>
+  </si>
+  <si>
+    <t>자신감 게이지가 다 찼어. 넌 최고야!</t>
+  </si>
+  <si>
+    <t>여기 물이에요 이거를 마셔요!</t>
+  </si>
+  <si>
+    <t>아기공룡</t>
+  </si>
+  <si>
+    <t>근데 공룡별까지 어떻게 가지?</t>
+  </si>
+  <si>
+    <t>비행기를 타고 사막을 왔는데 물이 다 떨어 졌어요. 혹시 괜찮다면 물을 나눠줄 수 있나요?</t>
+  </si>
+  <si>
+    <t>자신감이 올라가고 있어! 훌륭해!</t>
+  </si>
+  <si>
+    <t>유니콘을 부르자</t>
+  </si>
+  <si>
+    <t>여조종사</t>
+  </si>
+  <si>
+    <t>좋아요! 감사합니다.</t>
+  </si>
+  <si>
+    <t>저기 있는 무기로 도와주자!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞아, 물을 구해야 하는데 어디에서 구할 수 있을지 모르겠어..</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 지금 물을 마시러 갈 건데 따라와! 내가 길을 안내해줄게.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그게 정말이야? 도와줘서 고마워!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>괜찮아요. 저는 또 구하면 돼요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말 고마워요. 근데 물이 필요하셨을 텐데, 제게 나눠주셔도 괜찮나요?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러면 제가 물이 있는 곳까지 태워다주고 친구들과 함께 네 행성으로 다같이 데려다줄게요. 어때요?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(내 친구 유니콘을 위해 떠온 건데 어떻게 하지?)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(나는 이제 길을 알아서 또 떠오면 되니까 일단 나눠드리자!)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>여우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유니콘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어린왕자야, 공룡 행성에 도착했어!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저기 누군가 도망가고 있는 것 같아. 가까이 가보자!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">물병을 조종사님 가까이에 갖다대면 물이 건네질거야. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도와준 답례로 선물을 드리고 싶은데, 하나 골라보세요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 우리 별로 돌아가자!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>branch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Dialog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도착했어, 여기서 물을 뜨면 돼.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
+      <name val="돋움"/>
+      <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -109,9 +256,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -173,7 +329,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="20000000000000000000"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -225,7 +381,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri" panose="20000000000000000000"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -341,21 +497,21 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -417,59 +573,617 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D52829-1994-4B83-939D-94A3AC4BC60F}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17">
         <v>5</v>
       </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Assets/UI/Dialog/Dialog_script.xlsx
+++ b/Assets/UI/Dialog/Dialog_script.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LGPC\OneDrive\문서\unity-project\Assets\UI\Dialog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LGPC\OneDrive\바탕 화면\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA8FF7F-FA19-442F-A9FB-7475EE32ACFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126BEC2D-8097-4B21-A6F2-1B0D1B5ADCD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6870" yWindow="280" windowWidth="15120" windowHeight="9940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Earth" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="64">
   <si>
     <t>왜 이렇게 속상해하니 어린왕자야?</t>
   </si>
@@ -34,9 +34,6 @@
     <t>당연하지! 우리는 꼭 구할 수 있을 거야</t>
   </si>
   <si>
-    <t>뱀을 따라가보자. 오아시스가 나타날거야.</t>
-  </si>
-  <si>
     <t>앞에 있는 설명서를 읽고 시작해보자. 시작 버튼을 누르고 아기 공룡을 구해줘!</t>
   </si>
   <si>
@@ -46,9 +43,6 @@
     <t>어린왕자</t>
   </si>
   <si>
-    <t>어린 왕자야 저기 있는 행성으로 가보자, 저 행성에 네가 좋아하는 것들로 이루어져 있을 거야!</t>
-  </si>
-  <si>
     <t>뱀</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>수고했어, 도와주려고 해서 너무 고마워! 나를 도와주려고 했으니 선물을 줄게! 여기서 하나 골라볼래?</t>
   </si>
   <si>
-    <t>손에 있는 무기로 운석을 부수는 거야!</t>
-  </si>
-  <si>
     <t>흐아아앙, 엄마, 아빠...나 무서워!</t>
   </si>
   <si>
@@ -115,9 +106,6 @@
     <t>조종사님 어디 아프세요?</t>
   </si>
   <si>
-    <t>자신감 게이지가 다 찼어. 넌 최고야!</t>
-  </si>
-  <si>
     <t>여기 물이에요 이거를 마셔요!</t>
   </si>
   <si>
@@ -127,21 +115,12 @@
     <t>근데 공룡별까지 어떻게 가지?</t>
   </si>
   <si>
-    <t>비행기를 타고 사막을 왔는데 물이 다 떨어 졌어요. 혹시 괜찮다면 물을 나눠줄 수 있나요?</t>
-  </si>
-  <si>
     <t>자신감이 올라가고 있어! 훌륭해!</t>
   </si>
   <si>
-    <t>유니콘을 부르자</t>
-  </si>
-  <si>
     <t>여조종사</t>
   </si>
   <si>
-    <t>좋아요! 감사합니다.</t>
-  </si>
-  <si>
     <t>저기 있는 무기로 도와주자!</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -150,26 +129,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>내가 지금 물을 마시러 갈 건데 따라와! 내가 길을 안내해줄게.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그게 정말이야? 도와줘서 고마워!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>괜찮아요. 저는 또 구하면 돼요.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>정말 고마워요. 근데 물이 필요하셨을 텐데, 제게 나눠주셔도 괜찮나요?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그러면 제가 물이 있는 곳까지 태워다주고 친구들과 함께 네 행성으로 다같이 데려다줄게요. 어때요?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>(내 친구 유니콘을 위해 떠온 건데 어떻게 하지?)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -190,10 +153,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>이제 우리 별로 돌아가자!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>branch</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -207,6 +166,86 @@
   </si>
   <si>
     <t>도착했어, 여기서 물을 뜨면 돼.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니콘을 부르자.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>손에 있는 무기로 운석을 부술 수 있을 것 같아.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뱀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 길을 안내해줄게.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오아시스가 나타날거야.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">뱀을 따라가보자. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 지금 물을 마시러 갈 건데 따라와!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어린왕자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도와줘서 고마워!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그게 정말이야?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여조종사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어때요?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러면 제가 물이 있는 곳까지 태워다주고 친구들과 함께 당신의 행성으로 데려다줄게요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>감사합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹시 괜찮다면 물을 나눠줄 수 있나요?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비행기를 타고 사막을 왔는데 물이 다 떨어 졌어요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">정말 고마워요. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>근데 물이 필요하셨을 텐데, 제게 나눠주셔도 괜찮나요?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신감 게이지가 다 찼어. 넌 최고야! 이제 우리 별로 돌아가자!</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -582,7 +621,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -592,13 +631,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -606,10 +645,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -617,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -628,10 +667,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -639,10 +678,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -650,10 +689,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -661,7 +700,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
@@ -672,10 +711,10 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -683,10 +722,10 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -694,10 +733,10 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -705,10 +744,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -724,7 +763,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -734,13 +773,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -748,10 +787,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -759,10 +798,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -770,10 +809,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -781,10 +820,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -792,10 +831,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -803,10 +842,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -814,10 +853,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -830,10 +869,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -843,13 +882,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -857,7 +896,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -868,10 +907,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -879,10 +918,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -890,10 +929,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -901,21 +940,21 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
+      <c r="B7" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -923,76 +962,76 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>29</v>
+      <c r="C12" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>46</v>
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
@@ -1000,65 +1039,65 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>47</v>
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>4</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>48</v>
+      <c r="B16" t="s">
+        <v>31</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>4</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
@@ -1066,10 +1105,10 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
@@ -1077,33 +1116,103 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>6</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>30</v>
+        <v>5</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30">
         <v>6</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B31" s="2"/>
+      <c r="C31" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1118,7 +1227,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C5" sqref="A5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1128,13 +1237,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -1142,10 +1251,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -1153,10 +1262,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -1164,22 +1273,14 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="C5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Assets/UI/Dialog/Dialog_script.xlsx
+++ b/Assets/UI/Dialog/Dialog_script.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LGPC\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LGPC\OneDrive\문서\unity-project\Assets\UI\Dialog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126BEC2D-8097-4B21-A6F2-1B0D1B5ADCD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B74B50-1DBF-47B9-8AA6-14911D7781E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6870" yWindow="280" windowWidth="15120" windowHeight="9940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="4350" windowWidth="15120" windowHeight="9940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Earth" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="73">
   <si>
     <t>왜 이렇게 속상해하니 어린왕자야?</t>
   </si>
@@ -34,12 +34,6 @@
     <t>당연하지! 우리는 꼭 구할 수 있을 거야</t>
   </si>
   <si>
-    <t>앞에 있는 설명서를 읽고 시작해보자. 시작 버튼을 누르고 아기 공룡을 구해줘!</t>
-  </si>
-  <si>
-    <t>도와줘서 고마워! 너희의 도와준 마음에 대해 선물을 주고 싶어. 여기서 하나를 골라볼래?</t>
-  </si>
-  <si>
     <t>어린왕자</t>
   </si>
   <si>
@@ -67,12 +61,6 @@
     <t>공룡별에서 운석이 떨어지고 있어... 저렇게 위험에 빠진 행성이 있는데 내가 할 수 있는게 아무것도 없어..</t>
   </si>
   <si>
-    <t>수고했어, 도와주려고 해서 너무 고마워! 나를 도와주려고 했으니 선물을 줄게! 여기서 하나 골라볼래?</t>
-  </si>
-  <si>
-    <t>흐아아앙, 엄마, 아빠...나 무서워!</t>
-  </si>
-  <si>
     <t>그럼 이제 유니콘에게 물을 주러 가보자!</t>
   </si>
   <si>
@@ -115,9 +103,6 @@
     <t>근데 공룡별까지 어떻게 가지?</t>
   </si>
   <si>
-    <t>자신감이 올라가고 있어! 훌륭해!</t>
-  </si>
-  <si>
     <t>여조종사</t>
   </si>
   <si>
@@ -246,6 +231,57 @@
   </si>
   <si>
     <t>자신감 게이지가 다 찼어. 넌 최고야! 이제 우리 별로 돌아가자!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>앞에 있는 설명서를 읽고 시작해보자.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작 버튼을 누르고 아기 공룡을 구해줘!</t>
+  </si>
+  <si>
+    <t>아기공룡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">흐아아앙 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄마, 아빠...나 무서워!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도와줘서 고마워! 여기서 하나를 골라볼래?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>너희의 도와준 마음에 대해 선물을 주고 싶어.</t>
+  </si>
+  <si>
+    <t>여기서 하나를 골라볼래?</t>
+  </si>
+  <si>
+    <t>수고했어, 도와주려고 해서 너무 고마워!</t>
+  </si>
+  <si>
+    <t>나를 도와주려고 했으니 선물을 줄게!</t>
+  </si>
+  <si>
+    <t>여기서 하나 골라볼래?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>훌륭해!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신감이 올라가고 있어!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 행성으로도 가 보자!</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -631,13 +667,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -645,10 +681,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -656,7 +692,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -667,10 +703,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -678,10 +714,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -689,10 +725,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -700,7 +736,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
@@ -711,10 +747,10 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -722,10 +758,10 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -733,10 +769,10 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -744,10 +780,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -760,10 +796,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -773,13 +809,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -787,76 +823,164 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>45</v>
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -871,8 +995,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -882,13 +1006,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -896,7 +1020,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -907,10 +1031,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -918,10 +1042,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -929,10 +1053,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -940,10 +1064,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -951,10 +1075,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -962,10 +1086,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -973,10 +1097,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -984,10 +1108,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -995,10 +1119,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -1006,10 +1130,10 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -1017,10 +1141,10 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -1028,10 +1152,10 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
@@ -1039,10 +1163,10 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
@@ -1050,10 +1174,10 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -1061,10 +1185,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
@@ -1072,10 +1196,10 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
@@ -1083,10 +1207,10 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
@@ -1094,10 +1218,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
@@ -1105,10 +1229,10 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
@@ -1116,10 +1240,10 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
@@ -1127,10 +1251,10 @@
         <v>5</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
@@ -1138,10 +1262,10 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
@@ -1149,10 +1273,10 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
@@ -1160,10 +1284,10 @@
         <v>5</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
@@ -1171,10 +1295,10 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
@@ -1182,10 +1306,10 @@
         <v>5</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
@@ -1193,10 +1317,10 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
@@ -1204,10 +1328,10 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
@@ -1237,13 +1361,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -1251,10 +1375,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -1262,10 +1386,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -1273,10 +1397,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">

--- a/Assets/UI/Dialog/Dialog_script.xlsx
+++ b/Assets/UI/Dialog/Dialog_script.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LGPC\OneDrive\문서\unity-project\Assets\UI\Dialog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B74B50-1DBF-47B9-8AA6-14911D7781E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644A608A-202A-4510-8C5F-7DA7F1F19C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="4350" windowWidth="15120" windowHeight="9940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7570" yWindow="3400" windowWidth="15120" windowHeight="9940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Earth" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="76">
   <si>
     <t>왜 이렇게 속상해하니 어린왕자야?</t>
   </si>
@@ -31,9 +31,6 @@
     <t>사막이니까 분명히 오아시스가 있을 거야.</t>
   </si>
   <si>
-    <t>당연하지! 우리는 꼭 구할 수 있을 거야</t>
-  </si>
-  <si>
     <t>어린왕자</t>
   </si>
   <si>
@@ -52,15 +49,9 @@
     <t>우리가 도와줄 수 있어 어린왕자야, 저 행성으로 가보자!</t>
   </si>
   <si>
-    <t xml:space="preserve">유니콘을 타고, 포탈로 이동해보자. 공룡별로 갈 수 있을거야. </t>
-  </si>
-  <si>
     <t>눈 앞에 나타난 유니콘 모형을 잡으면 유니콘이 소환될거야.</t>
   </si>
   <si>
-    <t>공룡별에서 운석이 떨어지고 있어... 저렇게 위험에 빠진 행성이 있는데 내가 할 수 있는게 아무것도 없어..</t>
-  </si>
-  <si>
     <t>그럼 이제 유니콘에게 물을 주러 가보자!</t>
   </si>
   <si>
@@ -282,6 +273,29 @@
   </si>
   <si>
     <t>다른 행성으로도 가 보자!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공룡별에서 운석이 떨어지고 있어…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저렇게 위험에 빠진 행성이 있는데 내가 할 수 있는게 아무것도 없어..</t>
+  </si>
+  <si>
+    <t>공룡별로 갈 수 있을거야.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니콘을 타고, 포탈로 이동해보자.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>당연하지!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리는 꼭 구할 수 있을 거야</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -331,7 +345,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -342,6 +356,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -654,10 +671,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -667,13 +684,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -681,10 +698,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -692,7 +709,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -703,21 +720,21 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
+      <c r="B5" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -725,10 +742,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -736,10 +753,10 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -747,21 +764,21 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>2</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
+      <c r="B9" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -769,21 +786,54 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13">
         <v>3</v>
       </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -798,7 +848,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -809,13 +859,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -823,10 +873,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -834,10 +884,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -845,10 +895,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -856,10 +906,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -867,10 +917,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -878,10 +928,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -889,10 +939,10 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -900,10 +950,10 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -911,10 +961,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -922,10 +972,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -933,10 +983,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -944,10 +994,10 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -955,10 +1005,10 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
@@ -966,10 +1016,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
@@ -977,10 +1027,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1006,13 +1056,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -1020,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -1031,10 +1081,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -1042,10 +1092,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -1053,10 +1103,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -1064,10 +1114,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -1075,10 +1125,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -1086,10 +1136,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -1097,10 +1147,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -1108,10 +1158,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -1119,10 +1169,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -1130,10 +1180,10 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -1141,10 +1191,10 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -1152,10 +1202,10 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
@@ -1163,10 +1213,10 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
@@ -1174,10 +1224,10 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -1185,10 +1235,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
@@ -1196,10 +1246,10 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
@@ -1207,10 +1257,10 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
@@ -1218,10 +1268,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
@@ -1229,10 +1279,10 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
@@ -1240,10 +1290,10 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
@@ -1251,10 +1301,10 @@
         <v>5</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
@@ -1262,10 +1312,10 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
@@ -1273,10 +1323,10 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
@@ -1284,10 +1334,10 @@
         <v>5</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
@@ -1295,10 +1345,10 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
@@ -1306,10 +1356,10 @@
         <v>5</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
@@ -1317,10 +1367,10 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
@@ -1328,10 +1378,10 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
@@ -1361,13 +1411,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -1375,10 +1425,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -1386,10 +1436,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -1397,10 +1447,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">

--- a/Assets/UI/Dialog/Dialog_script.xlsx
+++ b/Assets/UI/Dialog/Dialog_script.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LGPC\OneDrive\문서\unity-project\Assets\UI\Dialog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644A608A-202A-4510-8C5F-7DA7F1F19C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB4AAE0-FE17-4A9C-BC51-4F130D10496A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7570" yWindow="3400" windowWidth="15120" windowHeight="9940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7570" yWindow="3400" windowWidth="15120" windowHeight="9940" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Earth" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="78">
   <si>
     <t>왜 이렇게 속상해하니 어린왕자야?</t>
   </si>
@@ -55,9 +55,6 @@
     <t>그럼 이제 유니콘에게 물을 주러 가보자!</t>
   </si>
   <si>
-    <t>당연하지. 누군가를 도와주면 너 또한 행복해진다는 거, 잊으면 안돼!</t>
-  </si>
-  <si>
     <t>여우야 나는 내가 누군가에게 도움이 될 수 있다는 게 너무 기뻐!</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
     <t>내가 할 수 있을까..?</t>
   </si>
   <si>
-    <t>이 행성은 네가 아기 공룡과 조종사를 도와준 결과야. 반짝반짝 예쁘지?</t>
-  </si>
-  <si>
     <t>너희 혹시 오아시스를 찾고 있니?</t>
   </si>
   <si>
@@ -297,6 +291,21 @@
   <si>
     <t>우리는 꼭 구할 수 있을 거야</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>반짝반짝 예쁘지?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 행성은 네가 아기 공룡과 조종사를 도와준 결과야.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>당연하지.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>누군가를 도와주면 너 또한 행복해진다는 거, 잊으면 안돼!</t>
   </si>
 </sst>
 </file>
@@ -345,7 +354,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -356,9 +365,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -673,7 +679,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -684,13 +690,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -723,7 +729,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -731,10 +737,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -756,7 +762,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -767,7 +773,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -775,10 +781,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -789,7 +795,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -800,7 +806,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -822,7 +828,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -830,10 +836,10 @@
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>72</v>
+        <v>27</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -859,13 +865,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -873,10 +879,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -884,10 +890,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -898,7 +904,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -909,7 +915,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -920,7 +926,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -928,10 +934,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -939,10 +945,10 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -950,10 +956,10 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -961,10 +967,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -972,10 +978,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -983,10 +989,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -994,10 +1000,10 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -1008,7 +1014,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
@@ -1016,10 +1022,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
@@ -1027,10 +1033,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1056,13 +1062,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -1084,7 +1090,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -1095,7 +1101,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -1106,7 +1112,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -1117,7 +1123,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -1125,10 +1131,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -1139,7 +1145,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -1147,10 +1153,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -1161,7 +1167,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -1169,10 +1175,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -1183,7 +1189,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -1216,7 +1222,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
@@ -1224,10 +1230,10 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -1235,10 +1241,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
@@ -1249,7 +1255,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
@@ -1260,7 +1266,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
@@ -1268,10 +1274,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
@@ -1282,7 +1288,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
@@ -1290,10 +1296,10 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
@@ -1301,10 +1307,10 @@
         <v>5</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
@@ -1315,7 +1321,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
@@ -1323,10 +1329,10 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
@@ -1334,10 +1340,10 @@
         <v>5</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
@@ -1348,7 +1354,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
@@ -1356,10 +1362,10 @@
         <v>5</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
@@ -1367,10 +1373,10 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
@@ -1381,7 +1387,7 @@
         <v>6</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
@@ -1398,10 +1404,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C5" sqref="A5:C5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1411,13 +1417,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -1427,19 +1433,19 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
+      <c r="C2" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -1447,14 +1453,33 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C5" s="1"/>
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Assets/UI/Dialog/Dialog_script.xlsx
+++ b/Assets/UI/Dialog/Dialog_script.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LGPC\OneDrive\문서\unity-project\Assets\UI\Dialog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SNG\Undergraduate researcher\Wemeet_Proj\unity-project\unity-project\Assets\UI\Dialog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB4AAE0-FE17-4A9C-BC51-4F130D10496A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819BAED7-ABF5-417A-BD85-DA4CE8C3326D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7570" yWindow="3400" windowWidth="15120" windowHeight="9940" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="0" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Earth" sheetId="1" r:id="rId1"/>
@@ -312,7 +312,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -683,12 +683,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -710,7 +710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -732,7 +732,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -743,7 +743,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -754,7 +754,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -765,7 +765,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -776,7 +776,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -787,7 +787,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -798,7 +798,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -809,7 +809,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -820,7 +820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>3</v>
       </c>
@@ -831,7 +831,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -858,12 +858,12 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -874,7 +874,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -885,7 +885,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -896,7 +896,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -907,7 +907,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -918,7 +918,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -929,7 +929,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -940,7 +940,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -951,7 +951,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -962,7 +962,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -973,7 +973,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>3</v>
       </c>
@@ -984,7 +984,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -995,7 +995,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>3</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>4</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>4</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>4</v>
       </c>
@@ -1051,16 +1051,16 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>3</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>4</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>4</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>4</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>4</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>4</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>4</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>5</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>5</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>5</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>5</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>5</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>5</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>5</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>5</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>5</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>6</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3">
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
     </row>
@@ -1406,16 +1406,16 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>1</v>
       </c>
